--- a/data/trans_orig/P43A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC727843-F4EB-4CA4-8196-61C16F89E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA45E20F-4799-4467-93F5-6973350A492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8B3C7A8-F0D1-4BCB-A2BE-26A45F407576}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC1093F6-5092-43A2-9DB7-E78D95D30B81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="211">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>28,5%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,568 +104,574 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB9A3D8-721C-4765-9760-E94EAE447324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2907DEC-718B-4F65-A719-575A4D8CD7F9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2196,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E6293F-E080-44BC-A4FC-9F6DD64D1106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E80C68-6C64-4F60-89D9-B81B60937892}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2437,7 +2443,7 @@
         <v>75</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>182</v>
@@ -2452,7 +2458,7 @@
         <v>75</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2486,13 @@
         <v>103876</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2495,13 +2501,13 @@
         <v>103876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2586,13 @@
         <v>98399</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -2595,13 +2601,13 @@
         <v>98399</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2635,13 @@
         <v>247837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -2644,13 +2650,13 @@
         <v>247837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2684,13 @@
         <v>198550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -2693,13 +2699,13 @@
         <v>198550</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2733,13 @@
         <v>108788</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -2742,13 +2748,13 @@
         <v>108788</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2833,13 @@
         <v>21055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2842,13 +2848,13 @@
         <v>21055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2882,13 @@
         <v>59918</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>50</v>
@@ -2891,13 +2897,13 @@
         <v>59918</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2931,13 @@
         <v>49782</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2940,13 +2946,13 @@
         <v>49782</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2980,13 @@
         <v>28779</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -2989,13 +2995,13 @@
         <v>28779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3080,13 @@
         <v>339907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>310</v>
@@ -3089,13 +3095,13 @@
         <v>339907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3129,13 @@
         <v>637154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>583</v>
@@ -3138,13 +3144,13 @@
         <v>637154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3178,13 @@
         <v>443451</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>408</v>
@@ -3187,13 +3193,13 @@
         <v>443451</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CB9501-151D-4A68-B3D3-C09B2F5E60ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873475D-D8FA-4F74-B679-0635E95B39DA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3556,7 +3562,7 @@
         <v>123</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>103</v>
@@ -3571,7 +3577,7 @@
         <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3605,13 @@
         <v>56849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3614,13 +3620,13 @@
         <v>56849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3705,13 @@
         <v>148478</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -3714,13 +3720,13 @@
         <v>148478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3754,13 @@
         <v>379133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -3763,13 +3769,13 @@
         <v>379133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3803,13 @@
         <v>213459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>198</v>
@@ -3812,13 +3818,13 @@
         <v>213459</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3852,13 @@
         <v>115976</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -3861,13 +3867,13 @@
         <v>115976</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3952,13 @@
         <v>33100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3961,13 +3967,13 @@
         <v>33100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4001,13 @@
         <v>96421</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -4010,13 +4016,13 @@
         <v>96421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4050,13 @@
         <v>84801</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4059,13 +4065,13 @@
         <v>84801</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4099,13 @@
         <v>33975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -4108,13 +4114,13 @@
         <v>33975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4199,13 @@
         <v>428991</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>376</v>
@@ -4208,13 +4214,13 @@
         <v>428991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4248,13 @@
         <v>702608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>644</v>
@@ -4257,13 +4263,13 @@
         <v>702608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4297,13 @@
         <v>410366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>378</v>
@@ -4306,13 +4312,13 @@
         <v>410366</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4346,13 @@
         <v>206799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>189</v>
@@ -4355,13 +4361,13 @@
         <v>206799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B0F900-1757-4B71-AA0D-E0CC7408F9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF6A654-D5D2-4DAC-9DC0-20267A991F3F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4451,7 +4457,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4571,13 +4577,13 @@
         <v>239792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>456</v>
@@ -4586,13 +4592,13 @@
         <v>239792</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4626,13 @@
         <v>111680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -4635,13 +4641,13 @@
         <v>111680</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4675,13 @@
         <v>59700</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -4684,13 +4690,13 @@
         <v>59700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4724,13 @@
         <v>25790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4733,13 +4739,13 @@
         <v>25790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4824,13 @@
         <v>196925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4833,13 +4839,13 @@
         <v>196925</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4873,13 @@
         <v>357339</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -4882,13 +4888,13 @@
         <v>357339</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4922,13 @@
         <v>188520</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -4931,13 +4937,13 @@
         <v>188520</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4971,13 @@
         <v>105582</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>166</v>
@@ -4980,13 +4986,13 @@
         <v>105582</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,10 +5071,10 @@
         <v>59110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>189</v>
@@ -5080,10 +5086,10 @@
         <v>59110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>189</v>
@@ -5114,13 +5120,13 @@
         <v>93778</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -5129,13 +5135,13 @@
         <v>93778</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5169,13 @@
         <v>90148</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5178,13 +5184,13 @@
         <v>90148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5218,13 @@
         <v>46465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5227,13 +5233,13 @@
         <v>46465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5318,13 @@
         <v>495828</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>863</v>
@@ -5327,13 +5333,13 @@
         <v>495828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5367,13 @@
         <v>562797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>765</v>
@@ -5376,13 +5382,13 @@
         <v>562797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5416,13 @@
         <v>338368</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -5425,13 +5431,13 @@
         <v>338368</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5465,13 @@
         <v>177837</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -5474,13 +5480,13 @@
         <v>177837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA45E20F-4799-4467-93F5-6973350A492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFECDF0-3207-4FC9-900D-66478164BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC1093F6-5092-43A2-9DB7-E78D95D30B81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F9AAD00-E22A-442B-B401-0C507B4301A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="210">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>28,5%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,421 +116,421 @@
     <t>15,57%</t>
   </si>
   <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2012 (Tasa respuesta: 23,36%)</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2015 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
@@ -543,9 +543,6 @@
   </si>
   <si>
     <t>58,37%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
   </si>
   <si>
     <t>22,46%</t>
@@ -1083,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2907DEC-718B-4F65-A719-575A4D8CD7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6764DAC-D2CD-48D1-9DC4-F69DAFF3C3C0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2202,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E80C68-6C64-4F60-89D9-B81B60937892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B19BC79-289A-488B-B948-FE1F97169265}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3184,7 +3181,7 @@
         <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>408</v>
@@ -3199,7 +3196,7 @@
         <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3224,13 @@
         <v>241443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3242,13 +3239,13 @@
         <v>241443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,7 +3318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873475D-D8FA-4F74-B679-0635E95B39DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852F752-D887-4812-989C-9B19157313C0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3458,13 +3455,13 @@
         <v>247413</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>213</v>
@@ -3473,13 +3470,13 @@
         <v>247413</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3504,13 @@
         <v>227054</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
@@ -3522,13 +3519,13 @@
         <v>227054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3553,13 @@
         <v>112106</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>103</v>
@@ -3571,13 +3568,13 @@
         <v>112106</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3602,13 @@
         <v>56849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3620,13 +3617,13 @@
         <v>56849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3702,13 @@
         <v>148478</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -3720,13 +3717,13 @@
         <v>148478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3751,13 @@
         <v>379133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -3769,13 +3766,13 @@
         <v>379133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3800,13 @@
         <v>213459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>198</v>
@@ -3818,13 +3815,13 @@
         <v>213459</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3849,13 @@
         <v>115976</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -3867,13 +3864,13 @@
         <v>115976</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3949,13 @@
         <v>33100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3967,13 +3964,13 @@
         <v>33100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,10 +3998,10 @@
         <v>96421</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>145</v>
@@ -4016,10 +4013,10 @@
         <v>96421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>145</v>
@@ -4440,7 +4437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF6A654-D5D2-4DAC-9DC0-20267A991F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E66B6-67B1-485A-B848-178CDF5A3559}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4626,13 +4623,13 @@
         <v>111680</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -4641,13 +4638,13 @@
         <v>111680</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4672,13 @@
         <v>59700</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -4690,13 +4687,13 @@
         <v>59700</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4721,13 @@
         <v>25790</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4739,13 +4736,13 @@
         <v>25790</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4821,13 @@
         <v>196925</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4839,13 +4836,13 @@
         <v>196925</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4870,13 @@
         <v>357339</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -4888,13 +4885,13 @@
         <v>357339</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,10 +4919,10 @@
         <v>188520</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>35</v>
@@ -4937,10 +4934,10 @@
         <v>188520</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>35</v>
@@ -4971,13 +4968,13 @@
         <v>105582</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>166</v>
@@ -4986,13 +4983,13 @@
         <v>105582</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5068,13 @@
         <v>59110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5086,13 +5083,13 @@
         <v>59110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5117,13 @@
         <v>93778</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -5135,13 +5132,13 @@
         <v>93778</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5166,13 @@
         <v>90148</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -5184,13 +5181,13 @@
         <v>90148</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5215,13 @@
         <v>46465</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5233,13 +5230,13 @@
         <v>46465</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5315,13 @@
         <v>495828</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>863</v>
@@ -5333,13 +5330,13 @@
         <v>495828</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5364,13 @@
         <v>562797</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>765</v>
@@ -5382,13 +5379,13 @@
         <v>562797</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5413,13 @@
         <v>338368</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -5431,13 +5428,13 @@
         <v>338368</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5462,13 @@
         <v>177837</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -5480,13 +5477,13 @@
         <v>177837</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFECDF0-3207-4FC9-900D-66478164BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3257033D-2CF0-4844-BA01-20B60F9F9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F9AAD00-E22A-442B-B401-0C507B4301A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7986CDA-5235-43A2-96DC-07255648AF34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="209">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>28,5%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>35,82%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,10 +104,10 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>15,57%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,34 +131,34 @@
     <t>21,2%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>14,3%</t>
+    <t>14,24%</t>
   </si>
   <si>
     <t>21,14%</t>
@@ -170,75 +170,75 @@
     <t>15,46%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -248,37 +248,34 @@
     <t>25,97%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>20,15%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>15,06%</t>
@@ -287,388 +284,388 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>18,32%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2016 (Tasa respuesta: 24,27%)</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>42,12%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>14,5%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6764DAC-D2CD-48D1-9DC4-F69DAFF3C3C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31470105-753F-40AD-9CDA-3246885F589C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2199,7 +2196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B19BC79-289A-488B-B948-FE1F97169265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A81ABE1-7735-4CDA-B228-C4E69A402467}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2440,7 +2437,7 @@
         <v>75</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
         <v>182</v>
@@ -2455,7 +2452,7 @@
         <v>75</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2480,13 @@
         <v>103876</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2498,13 +2495,13 @@
         <v>103876</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2580,13 @@
         <v>98399</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -2598,13 +2595,13 @@
         <v>98399</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2629,13 @@
         <v>247837</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>224</v>
@@ -2647,13 +2644,13 @@
         <v>247837</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2678,13 @@
         <v>198550</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>185</v>
@@ -2696,13 +2693,13 @@
         <v>198550</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2727,13 @@
         <v>108788</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -2745,13 +2742,13 @@
         <v>108788</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2827,13 @@
         <v>21055</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -2845,13 +2842,13 @@
         <v>21055</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2876,13 @@
         <v>59918</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>50</v>
@@ -2894,13 +2891,13 @@
         <v>59918</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2925,13 @@
         <v>49782</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2943,13 +2940,13 @@
         <v>49782</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2974,13 @@
         <v>28779</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -2992,13 +2989,13 @@
         <v>28779</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3074,13 @@
         <v>339907</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>310</v>
@@ -3092,13 +3089,13 @@
         <v>339907</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3123,13 @@
         <v>637154</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>583</v>
@@ -3141,13 +3138,13 @@
         <v>637154</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3172,13 @@
         <v>443451</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>408</v>
@@ -3190,13 +3187,13 @@
         <v>443451</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3221,13 @@
         <v>241443</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -3239,13 +3236,13 @@
         <v>241443</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852F752-D887-4812-989C-9B19157313C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ADF08A-6518-42C3-9C31-31D07A2EA8B2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3455,13 +3452,13 @@
         <v>247413</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>213</v>
@@ -3470,13 +3467,13 @@
         <v>247413</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3501,13 @@
         <v>227054</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
@@ -3519,13 +3516,13 @@
         <v>227054</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3550,13 @@
         <v>112106</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="M6" s="7">
         <v>103</v>
@@ -3568,13 +3565,13 @@
         <v>112106</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3599,13 @@
         <v>56849</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3617,13 +3614,13 @@
         <v>56849</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3699,13 @@
         <v>148478</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>133</v>
@@ -3717,13 +3714,13 @@
         <v>148478</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3748,13 @@
         <v>379133</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -3766,13 +3763,13 @@
         <v>379133</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3797,13 @@
         <v>213459</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>198</v>
@@ -3815,13 +3812,13 @@
         <v>213459</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3846,13 @@
         <v>115976</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -3864,13 +3861,13 @@
         <v>115976</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3946,13 @@
         <v>33100</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3964,13 +3961,13 @@
         <v>33100</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3995,13 @@
         <v>96421</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -4013,13 +4010,13 @@
         <v>96421</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4044,13 @@
         <v>84801</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4062,13 +4059,13 @@
         <v>84801</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4093,13 @@
         <v>33975</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -4111,13 +4108,13 @@
         <v>33975</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4193,13 @@
         <v>428991</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>376</v>
@@ -4211,13 +4208,13 @@
         <v>428991</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4242,13 @@
         <v>702608</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>644</v>
@@ -4260,13 +4257,13 @@
         <v>702608</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4291,13 @@
         <v>410366</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>378</v>
@@ -4309,13 +4306,13 @@
         <v>410366</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4340,13 @@
         <v>206799</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>189</v>
@@ -4358,13 +4355,13 @@
         <v>206799</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,7 +4434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4E66B6-67B1-485A-B848-178CDF5A3559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60CEA1F-EC27-4F11-AAD0-E21203E05D58}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4454,7 +4451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4574,13 +4571,13 @@
         <v>239792</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>456</v>
@@ -4589,13 +4586,13 @@
         <v>239792</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4620,13 @@
         <v>111680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -4638,13 +4635,13 @@
         <v>111680</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4669,13 @@
         <v>59700</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>97</v>
@@ -4687,13 +4684,13 @@
         <v>59700</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4718,13 @@
         <v>25790</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4736,13 +4733,13 @@
         <v>25790</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4818,13 @@
         <v>196925</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4836,13 +4833,13 @@
         <v>196925</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4867,13 @@
         <v>357339</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -4885,13 +4882,13 @@
         <v>357339</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4916,13 @@
         <v>188520</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -4934,13 +4931,13 @@
         <v>188520</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,10 +5068,10 @@
         <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5086,10 +5083,10 @@
         <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5114,7 @@
         <v>93778</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>190</v>
@@ -5132,7 +5129,7 @@
         <v>93778</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>190</v>
@@ -5462,13 +5459,13 @@
         <v>177837</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
@@ -5477,13 +5474,13 @@
         <v>177837</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3257033D-2CF0-4844-BA01-20B60F9F9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7589810-BA39-4706-AEDC-97856587EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7986CDA-5235-43A2-96DC-07255648AF34}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{37C43761-0BA6-43E8-8838-3C189B2D400C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="208">
   <si>
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2007 (Tasa respuesta: 19,14%)</t>
   </si>
@@ -530,142 +530,139 @@
     <t>Población según el tiempo transcurrido desde la última mamografía que le hicieron en 2023 (Tasa respuesta: 28,13%)</t>
   </si>
   <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31470105-753F-40AD-9CDA-3246885F589C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29926086-4CF2-4549-9A25-48056E8BAA90}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2196,7 +2193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A81ABE1-7735-4CDA-B228-C4E69A402467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EEF3BC-037C-406F-972B-01DF294AB5B8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3315,7 +3312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ADF08A-6518-42C3-9C31-31D07A2EA8B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC6A4AD-AACC-4FFD-B45D-01AAD38167E0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4434,7 +4431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60CEA1F-EC27-4F11-AAD0-E21203E05D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12893220-A7DD-4963-82E0-127D3446DA6E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4568,7 +4565,7 @@
         <v>456</v>
       </c>
       <c r="I4" s="7">
-        <v>239792</v>
+        <v>218835</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -4583,7 +4580,7 @@
         <v>456</v>
       </c>
       <c r="N4" s="7">
-        <v>239792</v>
+        <v>218835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>163</v>
@@ -4617,7 +4614,7 @@
         <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>111680</v>
+        <v>99706</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>166</v>
@@ -4632,7 +4629,7 @@
         <v>191</v>
       </c>
       <c r="N5" s="7">
-        <v>111680</v>
+        <v>99706</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>166</v>
@@ -4666,7 +4663,7 @@
         <v>97</v>
       </c>
       <c r="I6" s="7">
-        <v>59700</v>
+        <v>53394</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>169</v>
@@ -4681,7 +4678,7 @@
         <v>97</v>
       </c>
       <c r="N6" s="7">
-        <v>59700</v>
+        <v>53394</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>169</v>
@@ -4715,7 +4712,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>25790</v>
+        <v>24090</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>172</v>
@@ -4724,13 +4721,13 @@
         <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>25790</v>
+        <v>24090</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>172</v>
@@ -4739,7 +4736,7 @@
         <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,7 +4761,7 @@
         <v>789</v>
       </c>
       <c r="I8" s="7">
-        <v>436962</v>
+        <v>396025</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -4779,7 +4776,7 @@
         <v>789</v>
       </c>
       <c r="N8" s="7">
-        <v>436962</v>
+        <v>396025</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -4815,31 +4812,31 @@
         <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>196925</v>
+        <v>206164</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
       </c>
       <c r="N9" s="7">
-        <v>196925</v>
+        <v>206164</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,31 +4861,31 @@
         <v>415</v>
       </c>
       <c r="I10" s="7">
-        <v>357339</v>
+        <v>433220</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
       </c>
       <c r="N10" s="7">
-        <v>357339</v>
+        <v>433220</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,31 +4910,31 @@
         <v>303</v>
       </c>
       <c r="I11" s="7">
-        <v>188520</v>
+        <v>173244</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
       </c>
       <c r="N11" s="7">
-        <v>188520</v>
+        <v>173244</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,31 +4959,31 @@
         <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>105582</v>
+        <v>99084</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>166</v>
       </c>
       <c r="N12" s="7">
-        <v>105582</v>
+        <v>99084</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5008,7 @@
         <v>1195</v>
       </c>
       <c r="I13" s="7">
-        <v>848366</v>
+        <v>911712</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -5026,7 +5023,7 @@
         <v>1195</v>
       </c>
       <c r="N13" s="7">
-        <v>848366</v>
+        <v>911712</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -5062,31 +5059,31 @@
         <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>59110</v>
+        <v>54335</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>59110</v>
+        <v>54335</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,10 +5108,10 @@
         <v>159</v>
       </c>
       <c r="I15" s="7">
-        <v>93778</v>
+        <v>87639</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>190</v>
@@ -5126,10 +5123,10 @@
         <v>159</v>
       </c>
       <c r="N15" s="7">
-        <v>93778</v>
+        <v>87639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>190</v>
@@ -5160,7 +5157,7 @@
         <v>147</v>
       </c>
       <c r="I16" s="7">
-        <v>90148</v>
+        <v>82476</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>192</v>
@@ -5175,7 +5172,7 @@
         <v>147</v>
       </c>
       <c r="N16" s="7">
-        <v>90148</v>
+        <v>82476</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>192</v>
@@ -5209,7 +5206,7 @@
         <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>46465</v>
+        <v>43322</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>195</v>
@@ -5224,7 +5221,7 @@
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>46465</v>
+        <v>43322</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>195</v>
@@ -5258,7 +5255,7 @@
         <v>470</v>
       </c>
       <c r="I18" s="7">
-        <v>289502</v>
+        <v>267772</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -5273,7 +5270,7 @@
         <v>470</v>
       </c>
       <c r="N18" s="7">
-        <v>289502</v>
+        <v>267772</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -5309,7 +5306,7 @@
         <v>863</v>
       </c>
       <c r="I19" s="7">
-        <v>495828</v>
+        <v>479333</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>198</v>
@@ -5324,7 +5321,7 @@
         <v>863</v>
       </c>
       <c r="N19" s="7">
-        <v>495828</v>
+        <v>479333</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>198</v>
@@ -5358,7 +5355,7 @@
         <v>765</v>
       </c>
       <c r="I20" s="7">
-        <v>562797</v>
+        <v>620565</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>201</v>
@@ -5373,7 +5370,7 @@
         <v>765</v>
       </c>
       <c r="N20" s="7">
-        <v>562797</v>
+        <v>620565</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>201</v>
@@ -5407,7 +5404,7 @@
         <v>547</v>
       </c>
       <c r="I21" s="7">
-        <v>338368</v>
+        <v>309114</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>204</v>
@@ -5416,13 +5413,13 @@
         <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
       </c>
       <c r="N21" s="7">
-        <v>338368</v>
+        <v>309114</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>204</v>
@@ -5431,7 +5428,7 @@
         <v>205</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,31 +5453,31 @@
         <v>279</v>
       </c>
       <c r="I22" s="7">
-        <v>177837</v>
+        <v>166496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>279</v>
       </c>
       <c r="N22" s="7">
-        <v>177837</v>
+        <v>166496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5502,7 @@
         <v>2454</v>
       </c>
       <c r="I23" s="7">
-        <v>1574830</v>
+        <v>1575509</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -5520,7 +5517,7 @@
         <v>2454</v>
       </c>
       <c r="N23" s="7">
-        <v>1574830</v>
+        <v>1575509</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
